--- a/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_磐石组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -239,6 +239,49 @@
   <si>
     <t>钱文博</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>sysconfig.expand_statistics_isNew = 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取快照表开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：实时查询 
+2：查询快照</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5450,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6363,20 +6406,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="27"/>
+    <row r="4" spans="1:13" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
